--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4080361.66142379</v>
+        <v>4155460.446835919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1339590.40116845</v>
+        <v>699091.9942080501</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7425883.76916127</v>
+        <v>7324435.743403686</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>314.6536463267108</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>163.3904686173342</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,22 +709,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>100.5344742103488</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>147.2675521453879</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>292.9415311655812</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>232.8190742372721</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.460791558339</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>141.2535971694241</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>314.3290279522073</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
-        <v>10.50623107476311</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>81.73375972274928</v>
       </c>
       <c r="T10" t="n">
-        <v>22.75446130335986</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206842</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>5.459896748108878</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896922</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>27.20393889262535</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>155.8385935972308</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>137.612264956791</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>99.41078338308806</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>49.53862743923884</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.01765267707079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>143.8076485760647</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4797853959761</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>67.9606511832225</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898712</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692846</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329054</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373689</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789542</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463127</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415208</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287485</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>219.980330798291</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463316</v>
+        <v>36.05218673157498</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539627</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689372</v>
+        <v>267.4082962991059</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3554,10 +3556,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>73.21532344290756</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463175</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898711</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857163</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692845</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329052</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378954</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463316</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415206</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>102.2696845944037</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="W46" t="n">
-        <v>161.4562518681535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>1496.41871256837</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>1110.630459970126</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>699.6445551805186</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2327.601408697533</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>2327.601408697533</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D4" t="n">
-        <v>2327.601408697533</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>2327.601408697533</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>2180.711461199623</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>2180.711461199623</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2548.393987841063</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2548.393987841063</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2548.393987841063</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>2548.393987841063</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>2327.601408697533</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1933.544000781331</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1564.58148384092</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>585.4485830251978</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4723,52 +4725,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>585.4485830251978</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>585.4485830251978</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>585.4485830251978</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>585.4485830251978</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>585.4485830251978</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1681.057459319286</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2686.53673639725</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2686.53673639725</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="U8" t="n">
-        <v>2686.53673639725</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="V8" t="n">
-        <v>2355.473849053679</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="W8" t="n">
-        <v>2355.473849053679</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>2050.019976259698</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.5811021474123</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>527.5811021474123</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>527.5811021474123</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>645.5696309511318</v>
       </c>
       <c r="T10" t="n">
-        <v>527.5811021474123</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="U10" t="n">
-        <v>527.5811021474123</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="V10" t="n">
-        <v>527.5811021474123</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W10" t="n">
-        <v>527.5811021474123</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X10" t="n">
-        <v>527.5811021474123</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>527.5811021474123</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5036,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>469.3397794245873</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>944.6756850271186</v>
       </c>
       <c r="N12" t="n">
-        <v>2123.441607278215</v>
+        <v>1749.087263291269</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1293.481213253143</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765191</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706323</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336716</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5252,61 +5254,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>494.02883455183</v>
       </c>
       <c r="M15" t="n">
-        <v>1608.660951743751</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N15" t="n">
-        <v>1953.181607381369</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O15" t="n">
-        <v>1953.181607381369</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.482229117117</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>423.0269196489027</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405894</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581963</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1341.503549752619</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.503549752619</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>423.0269196489027</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>674.4285624571611</v>
+        <v>461.0986004704494</v>
       </c>
       <c r="M18" t="n">
-        <v>1442.796708849623</v>
+        <v>1229.466746862911</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4347.33842560235</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="C19" t="n">
-        <v>4178.402242674443</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="D19" t="n">
-        <v>4028.285603262108</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="E19" t="n">
-        <v>3889.283315426965</v>
+        <v>197.6320241704758</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426965</v>
+        <v>197.6320241704758</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746786</v>
+        <v>197.6320241704758</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>4749.779469576119</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>4749.779469576119</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>4749.779469576119</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X19" t="n">
-        <v>4749.779469576119</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y19" t="n">
-        <v>4528.986890432589</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,13 +5788,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M21" t="n">
-        <v>877.4353633695368</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.000326757765</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O21" t="n">
-        <v>2328.464088060424</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>994.3109288932102</v>
+        <v>427.726883381638</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3747459653033</v>
+        <v>258.7907004537311</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659885</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y22" t="n">
-        <v>1175.95939372345</v>
+        <v>609.3753482118777</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6075,19 +6077,19 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.004430061687</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1041.981979867628</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>752.8533410811858</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>498.168852875299</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W25" t="n">
-        <v>208.7516828383384</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>877.919949189756</v>
       </c>
     </row>
     <row r="26">
@@ -6209,37 +6211,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6248,10 +6250,10 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N27" t="n">
-        <v>2107.322705390779</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="O27" t="n">
-        <v>2386.862770609477</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6415,19 +6417,19 @@
         <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954967</v>
+        <v>895.4886194174906</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>895.4886194174906</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>895.4886194174906</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>618.8589595388348</v>
+        <v>469.3397794245873</v>
       </c>
       <c r="M30" t="n">
-        <v>1387.227105931296</v>
+        <v>671.9452708802631</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.747761568914</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O30" t="n">
-        <v>2360.905457152158</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P30" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>3759.690041781067</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>3759.690041781067</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504511</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103128</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649694</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860497</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771664</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>4303.791700023915</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>4049.107211818028</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862498</v>
+        <v>3759.690041781067</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045217</v>
+        <v>3759.690041781067</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010313</v>
+        <v>3759.690041781067</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>719.154644265665</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.79397174047</v>
+        <v>449.7218569567725</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852604</v>
+        <v>449.7218569567725</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480309</v>
+        <v>449.7218569567725</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937957</v>
+        <v>301.8087633743794</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480088</v>
+        <v>301.8087633743794</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839949</v>
+        <v>133.6334416942</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427934</v>
+        <v>133.6334416942</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.55082408992</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782174</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.02006325513</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494604</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490131</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746023</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979764</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813792</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616159</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571752</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.5343174013</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654899</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489053</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492133</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634157</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530668</v>
+        <v>449.7218569567725</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,16 +6952,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>2948.395228855329</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>3716.76337524779</v>
       </c>
       <c r="N36" t="n">
-        <v>2056.693778606511</v>
+        <v>4521.174953511942</v>
       </c>
       <c r="O36" t="n">
-        <v>2056.693778606511</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>3926.422678879031</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>3757.486495951124</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>3757.486495951124</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625195</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>3869.435535636324</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>4141.002278403507</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>4590.745182813174</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>4336.060694607288</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>4336.060694607288</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>4108.07114370927</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>4108.07114370927</v>
       </c>
     </row>
     <row r="38">
@@ -7163,46 +7165,46 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018223</v>
+        <v>476.2498815306949</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1244.618027923156</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>2049.029606187307</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982977</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>391.964542768369</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>171.1719636248389</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>559.586466209052</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M42" t="n">
-        <v>879.9217857387538</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N42" t="n">
-        <v>1684.333364002905</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O42" t="n">
-        <v>2353.797125305564</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108344</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229687</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506741</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083222</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504529</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103147</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982991</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1084.618445323761</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1084.618445323761</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859418</v>
+        <v>829.9339571178743</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045219</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901033</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7633,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7661,16 +7663,16 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>264.0657286834808</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>494.02883455183</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1262.396980944291</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>456.2649855799953</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>238.8571570853795</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>396.7126770401272</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>210.9608310571239</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>428.5742033692738</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208062</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>73.53204524669997</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>216.0876643102804</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.0428822060025</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,13 +23712,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>96.29904972659716</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>8.821697689778205</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>49.50304498444807</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>99.07684557897352</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.567000675024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>36.02433160587256</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>77.0677756624132</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>218.5623471533685</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>66.25702160028635</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>74.36705873269699</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>18.82905609947142</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>106.6166567390297</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>119.2778764639855</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26071,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="W46" t="n">
-        <v>125.0667464684375</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656833.415891427</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656833.415891427</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656833.415891427</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656833.415891427</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656833.415891427</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="F2" t="n">
         <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="H2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="H2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="I2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710697</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="P2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371258</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758032</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758361</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
@@ -26442,22 +26444,22 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189636</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189635</v>
+        <v>787.7936905759511</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189637</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750408</v>
+        <v>-31896.41508750423</v>
       </c>
       <c r="C6" t="n">
         <v>558071.4641270405</v>
@@ -26534,34 +26536,34 @@
         <v>650180.0938623545</v>
       </c>
       <c r="G6" t="n">
+        <v>650180.0938623546</v>
+      </c>
+      <c r="H6" t="n">
+        <v>650180.0938623545</v>
+      </c>
+      <c r="I6" t="n">
+        <v>650180.0938623544</v>
+      </c>
+      <c r="J6" t="n">
+        <v>473756.8746697615</v>
+      </c>
+      <c r="K6" t="n">
+        <v>650180.0938623546</v>
+      </c>
+      <c r="L6" t="n">
+        <v>650180.0938623549</v>
+      </c>
+      <c r="M6" t="n">
+        <v>515379.0786285175</v>
+      </c>
+      <c r="N6" t="n">
+        <v>650180.0938623544</v>
+      </c>
+      <c r="O6" t="n">
         <v>650180.0938623548</v>
       </c>
-      <c r="H6" t="n">
-        <v>650180.0938623546</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>650180.0938623549</v>
-      </c>
-      <c r="J6" t="n">
-        <v>473756.8746697619</v>
-      </c>
-      <c r="K6" t="n">
-        <v>604562.482515435</v>
-      </c>
-      <c r="L6" t="n">
-        <v>659067.9946191476</v>
-      </c>
-      <c r="M6" t="n">
-        <v>524266.9793853104</v>
-      </c>
-      <c r="N6" t="n">
-        <v>659067.994619148</v>
-      </c>
-      <c r="O6" t="n">
-        <v>659067.9946191479</v>
-      </c>
-      <c r="P6" t="n">
-        <v>650180.0938623545</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,19 +26740,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,19 +26792,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50.61924544429672</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>250.3937014034608</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>66.71234688827907</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>139.0143220965898</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>61.74151045510177</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>149.1112958349897</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6847473916799</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>145.0282770725537</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40.35401366847566</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.9094817342084</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>130.4117792272696</v>
       </c>
       <c r="T10" t="n">
-        <v>202.2806441547244</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,10 +30276,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30286,10 +30288,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31139,7 +31141,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329999</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>156.5662485584136</v>
       </c>
       <c r="N12" t="n">
-        <v>185.1264506531164</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,34 +32074,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>338.7212239674712</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.51183610675977</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32311,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>8.647316246441392</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>168.4771510972101</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32491,7 +32493,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
@@ -32549,25 +32551,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>390.9403742038648</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32731,7 +32733,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
         <v>76.0697047810465</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,13 +32797,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>148.2056261846774</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32810,7 +32812,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33026,7 +33028,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33035,19 +33037,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>285.0631269188133</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,31 +33262,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>346.7860454934081</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>384.2467489891728</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647471</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>91.84465193776526</v>
       </c>
       <c r="P36" t="n">
-        <v>90.02710286925503</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565495</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33970,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>258.9857844358984</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>42.26818940707022</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>166.989328074946</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,22 +34447,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>203.2786159017854</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34469,13 +34471,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932201</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>480.1372783863952</v>
       </c>
       <c r="N12" t="n">
-        <v>533.1271129133366</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>662.2922537954528</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.6073497565874</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>240.9332817700264</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4778133574304</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>789.4595589780082</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>248.3441297594204</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>16.86391410134405</v>
+        <v>107.5154450020462</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36458,7 +36460,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>265.3709649567939</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>151.0887195044831</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>204.6520115713897</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>635.5128238214579</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520624</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>460.2185360131483</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>297.2324912859405</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>343.1107267700503</v>
       </c>
       <c r="P36" t="n">
-        <v>274.515464094862</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768305</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>510.2518592681835</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>274.5541549306552</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>514.9899903351662</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520626</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>383.9564222971663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>551.2792781620057</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4155460.446835919</v>
+        <v>4148443.431944209</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699091.9942080501</v>
+        <v>661203.9613982334</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>314.6536463267108</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>36.74365704764491</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>100.5344742103488</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>232.8190742372721</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>195.4755619138955</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>141.2535971694241</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>314.3290279522073</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>81.73375972274928</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385004</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>57.64843562452386</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.459896748108878</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.20393889262535</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.41078338308806</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>49.53862743923884</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.8076485760647</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>67.9606511832225</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>219.980330798291</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>36.05218673157498</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>267.4082962991059</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>12.68762643336706</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.21532344290756</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.62870505826284</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>102.2696845944037</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>57.5645290049876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2605.005596450084</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2605.005596450084</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2273.942709106514</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1921.174053836399</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1547.708295575319</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1157.568963599508</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.683768698139</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>1194.683768698139</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2499.699028478934</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2245.937243117025</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1914.874355773455</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1562.105700503341</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1188.639942242261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,10 +4652,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>585.4485830251978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>585.4485830251978</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>585.4485830251978</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>585.4485830251978</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>585.4485830251978</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>585.4485830251978</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2050.019976259698</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1681.057459319286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520777</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520777</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520777</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520777</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259698</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2050.019976259698</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>645.5696309511318</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>418.2614436197335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5029,61 +5029,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L12" t="n">
-        <v>469.3397794245873</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="M12" t="n">
-        <v>944.6756850271186</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N12" t="n">
-        <v>1749.087263291269</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O12" t="n">
-        <v>2418.551024593929</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>324.3840174432673</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153604</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1293.481213253143</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1004.352574466701</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1004.352574466701</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>714.9354044297402</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X13" t="n">
-        <v>486.9458535317228</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y13" t="n">
-        <v>266.1532743881928</v>
+        <v>506.0324822735071</v>
       </c>
     </row>
     <row r="14">
@@ -5257,34 +5257,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>264.0657286834809</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L15" t="n">
-        <v>494.02883455183</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1149.698165809328</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>423.0269196489027</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293934</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924328</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>643.8194987924328</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>423.0269196489027</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5597,22 +5597,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>461.0986004704494</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1229.466746862911</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>345.5451177528689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>345.5451177528689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>345.5451177528689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>197.6320241704758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>197.6320241704758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>197.6320241704758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>755.183133481126</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5797,7 +5797,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1095.548343721096</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1899.959921985247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.726883381638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>258.7907004537311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488384</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>609.3753482118777</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>609.3753482118777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>609.3753482118777</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,25 +6071,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1098.712528333286</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.712528333286</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.919949189756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1771.161069819836</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>895.4886194174906</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>895.4886194174906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>895.4886194174906</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>469.3397794245873</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>671.9452708802631</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3759.690041781067</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3759.690041781067</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4303.791700023915</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4049.107211818028</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>3759.690041781067</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>3759.690041781067</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3759.690041781067</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.59991596447</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183167</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>301.8087633743794</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>301.8087633743794</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>133.6334416942</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>133.6334416942</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.921157035281</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.921157035281</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>898.50398699832</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>670.5144361003026</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6943,46 +6943,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>2334.49815909844</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>2948.395228855329</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>3716.76337524779</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>4521.174953511942</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3926.422678879031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.486495951124</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3757.486495951124</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014291</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>4590.745182813174</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V37" t="n">
-        <v>4336.060694607288</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W37" t="n">
-        <v>4336.060694607288</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X37" t="n">
-        <v>4108.07114370927</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>4108.07114370927</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7180,43 +7180,43 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>246.2867756623457</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>476.2498815306949</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1244.618027923156</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.029606187307</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1191.667516904718</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033469</v>
+        <v>936.9830286988316</v>
       </c>
       <c r="W40" t="n">
-        <v>619.9540936663864</v>
+        <v>936.9830286988316</v>
       </c>
       <c r="X40" t="n">
-        <v>391.964542768369</v>
+        <v>708.9934778008143</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.1719636248389</v>
+        <v>708.9934778008143</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1387.227105931296</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1897.067196363111</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1084.618445323761</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1084.618445323761</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>829.9339571178743</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>540.5167870809138</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>540.5167870809138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>540.5167870809138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>264.0657286834808</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>494.02883455183</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1262.396980944291</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,22 +9014,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>238.8571570853795</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,19 +9965,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>396.7126770401272</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>428.5742033692738</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11393,13 +11393,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368849</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>216.0876643102804</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>140.0428822060025</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>49.50304498444807</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>99.07684557897352</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.02433160587256</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>218.5623471533685</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>66.25702160028635</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>74.36705873269699</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>18.82905609947142</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>213.0220289556701</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.6166567390297</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.6086473403145</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>119.2778764639855</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>194.5731143188404</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710689</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
         <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="K2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="L2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.213501647</v>
       </c>
       <c r="M2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="N2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="O2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759402</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759209</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905759511</v>
-      </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,16 +26496,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750423</v>
+        <v>-31896.41508750393</v>
       </c>
       <c r="C6" t="n">
-        <v>558071.4641270405</v>
+        <v>558071.4641270404</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270406</v>
+        <v>558071.4641270404</v>
       </c>
       <c r="E6" t="n">
-        <v>125020.0573854581</v>
+        <v>124045.4661257373</v>
       </c>
       <c r="F6" t="n">
-        <v>650180.0938623545</v>
+        <v>649205.5026026329</v>
       </c>
       <c r="G6" t="n">
-        <v>650180.0938623546</v>
+        <v>649205.502602633</v>
       </c>
       <c r="H6" t="n">
-        <v>650180.0938623545</v>
+        <v>649205.5026026331</v>
       </c>
       <c r="I6" t="n">
-        <v>650180.0938623544</v>
+        <v>649205.5026026332</v>
       </c>
       <c r="J6" t="n">
-        <v>473756.8746697615</v>
+        <v>472782.2834100403</v>
       </c>
       <c r="K6" t="n">
-        <v>650180.0938623546</v>
+        <v>649205.5026026331</v>
       </c>
       <c r="L6" t="n">
-        <v>650180.0938623549</v>
+        <v>649205.5026026329</v>
       </c>
       <c r="M6" t="n">
-        <v>515379.0786285175</v>
+        <v>514404.4873687959</v>
       </c>
       <c r="N6" t="n">
-        <v>650180.0938623544</v>
+        <v>649205.502602633</v>
       </c>
       <c r="O6" t="n">
-        <v>650180.0938623548</v>
+        <v>649205.5026026331</v>
       </c>
       <c r="P6" t="n">
-        <v>650180.0938623549</v>
+        <v>649205.5026026332</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>50.61924544429672</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>179.7046633100129</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>66.71234688827907</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>149.1112958349897</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>20.97275844376227</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>145.0282770725537</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.35401366847566</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>130.4117792272696</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30276,10 +30276,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30288,10 +30288,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31141,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31378,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9005868329999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>156.5662485584136</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>330.1172231204816</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7212239674712</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>345.089273358962</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>8.647316246441392</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,16 +32490,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32554,34 +32554,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9403742038648</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,34 +32785,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,34 +33022,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>346.7860454934081</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647471</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565495</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>258.9857844358984</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>166.989328074946</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34231,16 +34231,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>203.2786159017854</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35020,19 +35020,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932201</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>480.1372783863952</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>581.3832979527667</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M15" t="n">
-        <v>662.2922537954528</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>693.0899356191823</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>240.9332817700264</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>248.3441297594204</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>107.5154450020462</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3709649567939</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>204.6520115713897</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>297.2324912859405</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700503</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221093</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>510.2518592681835</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>514.9899903351662</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>551.2792781620057</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4148443.431944209</v>
+        <v>4153382.694793241</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>661203.9613982334</v>
+        <v>642608.2391686037</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>91.22205962245744</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>36.74365704764491</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>77.72878559814609</v>
       </c>
       <c r="X4" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>104.8161677931376</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>195.4755619138955</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385004</v>
+        <v>208.482788338504</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57.64843562452386</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>140.0680651027553</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>12.68762643336706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.62870505826284</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>770.969123535386</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C2" t="n">
-        <v>402.0066065949742</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>494.150101163113</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>494.150101163113</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>487.2046004139095</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>473.2811963525004</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>146.0864763885033</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2605.005596450084</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2605.005596450084</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>2273.942709106514</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1921.174053836399</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1547.708295575319</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1157.568963599508</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>113.6371076753678</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164663</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>649.6150593598222</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>180.6868035937422</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>173.7413028445388</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>159.8178987831297</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2499.699028478934</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2245.937243117025</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1914.874355773455</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1562.105700503341</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1188.639942242261</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4795,55 +4795,55 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M12" t="n">
-        <v>417.5524109899876</v>
+        <v>629.3975440735805</v>
       </c>
       <c r="N12" t="n">
-        <v>1221.963989254138</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.3840174432673</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>155.4478345153604</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150545</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170372</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735071</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047984</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="M15" t="n">
-        <v>1122.004430061687</v>
+        <v>1003.751888060526</v>
       </c>
       <c r="N15" t="n">
         <v>1808.163466324677</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,7 +5603,7 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,22 +6056,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
         <v>1122.004430061687</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6296,19 +6296,19 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
         <v>1122.004430061687</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
         <v>2056.693778606511</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
         <v>508.1073603047985</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,10 +7013,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047985</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>330.8254548799443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1191.667516904718</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>936.9830286988316</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>936.9830286988316</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>708.9934778008143</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>708.9934778008143</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>90.96703739368849</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.365897543813873</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>213.0220289556701</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.6086473403145</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="F2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="G2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="H2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="G2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="I2" t="n">
-        <v>742955.2135016475</v>
-      </c>
       <c r="J2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.213501647</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016472</v>
       </c>
       <c r="P2" t="n">
         <v>742955.2135016473</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26426,13 +26426,13 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759402</v>
+        <v>787.793690575774</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759209</v>
+        <v>787.7936905757817</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
@@ -26441,22 +26441,22 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
+        <v>787.79369057593</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.793690575921</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>787.7936905759134</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="L4" t="n">
-        <v>787.7936905759236</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750393</v>
+        <v>-31896.41508750424</v>
       </c>
       <c r="C6" t="n">
         <v>558071.4641270404</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270404</v>
+        <v>558071.4641270405</v>
       </c>
       <c r="E6" t="n">
-        <v>124045.4661257373</v>
+        <v>124922.5982594861</v>
       </c>
       <c r="F6" t="n">
-        <v>649205.5026026329</v>
+        <v>650082.6347363829</v>
       </c>
       <c r="G6" t="n">
-        <v>649205.502602633</v>
+        <v>650082.634736383</v>
       </c>
       <c r="H6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363824</v>
       </c>
       <c r="I6" t="n">
-        <v>649205.5026026332</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="J6" t="n">
-        <v>472782.2834100403</v>
+        <v>473659.4155437896</v>
       </c>
       <c r="K6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="L6" t="n">
-        <v>649205.5026026329</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="M6" t="n">
-        <v>514404.4873687959</v>
+        <v>515281.6195025453</v>
       </c>
       <c r="N6" t="n">
-        <v>649205.502602633</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="O6" t="n">
-        <v>649205.5026026331</v>
+        <v>650082.6347363824</v>
       </c>
       <c r="P6" t="n">
-        <v>649205.5026026332</v>
+        <v>650082.6347363828</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>60.70925662240381</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>179.7046633100129</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>208.7942127384449</v>
       </c>
       <c r="X4" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>219.1066049712196</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>20.97275844376227</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>61.04368814949358</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31384,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31606,7 +31606,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,10 +31621,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034983</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,28 +31849,28 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>213.98498291272</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>330.1172231204816</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>268.3650726135133</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>345.089273358962</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34222,7 +34222,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.29709682323572</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35254,7 +35254,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>537.5560127407016</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>581.3832979527667</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714617</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594833</v>
+        <v>500.6510381370983</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>693.0899356191823</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37870,7 +37870,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
